--- a/Code/Results/Cases/Case_2_221/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_221/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.785873222518205</v>
+        <v>0.5786272824987009</v>
       </c>
       <c r="C2">
-        <v>0.4511284645988098</v>
+        <v>0.1424607078895122</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.3435306524350779</v>
+        <v>0.5349065666312782</v>
       </c>
       <c r="F2">
-        <v>1.394720016390096</v>
+        <v>1.9386318224402</v>
       </c>
       <c r="G2">
-        <v>0.0007828446775869474</v>
+        <v>0.002397406590757517</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.1676407100718613</v>
+        <v>0.3800386061133487</v>
       </c>
       <c r="J2">
-        <v>0.01323363259872057</v>
+        <v>0.02881251915116678</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.8823861438386373</v>
+        <v>0.5197229209234209</v>
       </c>
       <c r="N2">
-        <v>0.6663031917134745</v>
+        <v>1.055473216310645</v>
       </c>
       <c r="O2">
-        <v>1.184219337661574</v>
+        <v>1.774413326933001</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.555759111573423</v>
+        <v>0.5075470041084031</v>
       </c>
       <c r="C3">
-        <v>0.3958607063383397</v>
+        <v>0.1250525105573672</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.3151109377130723</v>
+        <v>0.5307845632489077</v>
       </c>
       <c r="F3">
-        <v>1.279468340767508</v>
+        <v>1.924358166205451</v>
       </c>
       <c r="G3">
-        <v>0.0007866334106340463</v>
+        <v>0.002399921364743411</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.1688666995146946</v>
+        <v>0.3845583701168991</v>
       </c>
       <c r="J3">
-        <v>0.01386593612794584</v>
+        <v>0.02912978147959766</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.7696497725699274</v>
+        <v>0.4893710185732161</v>
       </c>
       <c r="N3">
-        <v>0.6813364153865606</v>
+        <v>1.063106144429121</v>
       </c>
       <c r="O3">
-        <v>1.109665178046555</v>
+        <v>1.773881814020569</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.414524065283899</v>
+        <v>0.463817675957813</v>
       </c>
       <c r="C4">
-        <v>0.3619294330126763</v>
+        <v>0.114311521390249</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.298085422864574</v>
+        <v>0.5284867624169749</v>
       </c>
       <c r="F4">
-        <v>1.211105011041383</v>
+        <v>1.916738407699455</v>
       </c>
       <c r="G4">
-        <v>0.0007890353810712069</v>
+        <v>0.002401548064996573</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.1702089809454357</v>
+        <v>0.3876088483800153</v>
       </c>
       <c r="J4">
-        <v>0.01427511776057244</v>
+        <v>0.02933620189066133</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.700849013073416</v>
+        <v>0.470905199287877</v>
       </c>
       <c r="N4">
-        <v>0.69148643651193</v>
+        <v>1.068222459859513</v>
       </c>
       <c r="O4">
-        <v>1.066995369029655</v>
+        <v>1.774900766586669</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.356966369601764</v>
+        <v>0.4459771068897282</v>
       </c>
       <c r="C5">
-        <v>0.3480981122827416</v>
+        <v>0.1099215316546633</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.2912467347967151</v>
+        <v>0.5276090616776798</v>
       </c>
       <c r="F5">
-        <v>1.183809089124665</v>
+        <v>1.913920911138604</v>
       </c>
       <c r="G5">
-        <v>0.0007900336006293652</v>
+        <v>0.002402231795535941</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.1708967771560665</v>
+        <v>0.3889210577113786</v>
       </c>
       <c r="J5">
-        <v>0.01444701005294746</v>
+        <v>0.02942324358308568</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.6729035414232598</v>
+        <v>0.4634234328729292</v>
       </c>
       <c r="N5">
-        <v>0.695846581935605</v>
+        <v>1.070415543999289</v>
       </c>
       <c r="O5">
-        <v>1.050338978125097</v>
+        <v>1.775653709435645</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.347408275067835</v>
+        <v>0.4430134860235171</v>
       </c>
       <c r="C6">
-        <v>0.345801050414309</v>
+        <v>0.1091918009407493</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.2901169692701515</v>
+        <v>0.5274668652700782</v>
       </c>
       <c r="F6">
-        <v>1.179309443716491</v>
+        <v>1.913470435525412</v>
       </c>
       <c r="G6">
-        <v>0.0007902005362468822</v>
+        <v>0.002402346588863059</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.1710192789446303</v>
+        <v>0.389143119970182</v>
       </c>
       <c r="J6">
-        <v>0.01447586014996904</v>
+        <v>0.02943787342528559</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.6682683388577715</v>
+        <v>0.4621837114612717</v>
       </c>
       <c r="N6">
-        <v>0.6965838995038425</v>
+        <v>1.07078623863427</v>
       </c>
       <c r="O6">
-        <v>1.047616007931339</v>
+        <v>1.775799115108043</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.413747857420731</v>
+        <v>0.4635771534676678</v>
       </c>
       <c r="C7">
-        <v>0.3617429216242272</v>
+        <v>0.1142523686218624</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.2979928010797437</v>
+        <v>0.5284746878115172</v>
       </c>
       <c r="F7">
-        <v>1.210734663260538</v>
+        <v>1.91669924558397</v>
       </c>
       <c r="G7">
-        <v>0.0007890487643037941</v>
+        <v>0.002401557201585846</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.1702176962506208</v>
+        <v>0.3876262656085103</v>
       </c>
       <c r="J7">
-        <v>0.01427741527167825</v>
+        <v>0.02933736392533959</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.7004717787358459</v>
+        <v>0.470804122152316</v>
       </c>
       <c r="N7">
-        <v>0.6915443416353284</v>
+        <v>1.068251598552713</v>
       </c>
       <c r="O7">
-        <v>1.06676783501527</v>
+        <v>1.774909554424497</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.706507420044858</v>
+        <v>0.5541372074298749</v>
       </c>
       <c r="C8">
-        <v>0.4320683821944158</v>
+        <v>0.1364693270177213</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.3336389085467601</v>
+        <v>0.5334369421626732</v>
       </c>
       <c r="F8">
-        <v>1.354457228759784</v>
+        <v>1.933472671165319</v>
       </c>
       <c r="G8">
-        <v>0.0007841355544462764</v>
+        <v>0.002398256574872144</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.1679364895890565</v>
+        <v>0.3815398061995197</v>
       </c>
       <c r="J8">
-        <v>0.01344723035347073</v>
+        <v>0.02891950052751113</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.8434186824052716</v>
+        <v>0.5092224321637175</v>
       </c>
       <c r="N8">
-        <v>0.6712912771040891</v>
+        <v>1.058015931732101</v>
       </c>
       <c r="O8">
-        <v>1.157837766376872</v>
+        <v>1.773950490947499</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.281917806939589</v>
+        <v>0.7310071983799844</v>
       </c>
       <c r="C9">
-        <v>0.5702471405230654</v>
+        <v>0.1796151617792532</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.4072641746345766</v>
+        <v>0.5450165492370118</v>
       </c>
       <c r="F9">
-        <v>1.657341302171332</v>
+        <v>1.975455545941244</v>
       </c>
       <c r="G9">
-        <v>0.000775083523914441</v>
+        <v>0.002392436756627445</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.1684943240398873</v>
+        <v>0.3717941992304539</v>
       </c>
       <c r="J9">
-        <v>0.01199104617899138</v>
+        <v>0.02819218542282531</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.127764314802874</v>
+        <v>0.5859006084301939</v>
       </c>
       <c r="N9">
-        <v>0.6392198420748301</v>
+        <v>1.041348923741211</v>
       </c>
       <c r="O9">
-        <v>1.363438895296071</v>
+        <v>1.782773024147303</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.706803079678878</v>
+        <v>0.8604778505700779</v>
       </c>
       <c r="C10">
-        <v>0.6723081252871168</v>
+        <v>0.211051401862818</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.4641628784341592</v>
+        <v>0.5546512155846699</v>
       </c>
       <c r="F10">
-        <v>1.89566982020456</v>
+        <v>2.011863179507131</v>
       </c>
       <c r="G10">
-        <v>0.0007687620669946105</v>
+        <v>0.002388554858115927</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.1724925620169699</v>
+        <v>0.3659765573218472</v>
       </c>
       <c r="J10">
-        <v>0.01103412760411349</v>
+        <v>0.02771385173911511</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.340185046513739</v>
+        <v>0.6430431660340901</v>
       </c>
       <c r="N10">
-        <v>0.6208315404441009</v>
+        <v>1.031174464289265</v>
       </c>
       <c r="O10">
-        <v>1.53446759687634</v>
+        <v>1.795824049989193</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.900881251092869</v>
+        <v>0.9192668243927073</v>
       </c>
       <c r="C11">
-        <v>0.7189478866670242</v>
+        <v>0.2252943626271247</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.4907867594225976</v>
+        <v>0.5592791694133865</v>
       </c>
       <c r="F11">
-        <v>2.008237349700082</v>
+        <v>2.029638851708867</v>
       </c>
       <c r="G11">
-        <v>0.0007659515278722576</v>
+        <v>0.002386873571152727</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.175214825788192</v>
+        <v>0.3636230663273317</v>
       </c>
       <c r="J11">
-        <v>0.0106252742537265</v>
+        <v>0.02750838300262881</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.43783961955468</v>
+        <v>0.6692123571486093</v>
       </c>
       <c r="N11">
-        <v>0.6137125667624517</v>
+        <v>1.026994540259658</v>
       </c>
       <c r="O11">
-        <v>1.617449371533155</v>
+        <v>1.8031974654576</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.974516571146353</v>
+        <v>0.9415122719584588</v>
       </c>
       <c r="C12">
-        <v>0.7366478139761625</v>
+        <v>0.2306793665967746</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.5009867107845167</v>
+        <v>0.5610668793326212</v>
       </c>
       <c r="F12">
-        <v>2.051525026332286</v>
+        <v>2.036544832242569</v>
       </c>
       <c r="G12">
-        <v>0.0007648960693880473</v>
+        <v>0.002386249014039853</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.176386779549933</v>
+        <v>0.3627741241417688</v>
       </c>
       <c r="J12">
-        <v>0.01047443364858758</v>
+        <v>0.02743231963428805</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.474988897158582</v>
+        <v>0.6791467983182713</v>
       </c>
       <c r="N12">
-        <v>0.611207054258287</v>
+        <v>1.025476135749223</v>
       </c>
       <c r="O12">
-        <v>1.649692859047008</v>
+        <v>1.806196853004764</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.958651100300358</v>
+        <v>0.936722076060164</v>
       </c>
       <c r="C13">
-        <v>0.732833971945098</v>
+        <v>0.2295199910330155</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.4987845226415004</v>
+        <v>0.5606802989318496</v>
       </c>
       <c r="F13">
-        <v>2.042171788770204</v>
+        <v>2.035049731946586</v>
       </c>
       <c r="G13">
-        <v>0.0007651229973661309</v>
+        <v>0.002386382985900438</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.1761279164956164</v>
+        <v>0.3629550766161316</v>
       </c>
       <c r="J13">
-        <v>0.01050673972198712</v>
+        <v>0.02744862372483414</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.466980214294068</v>
+        <v>0.6770061447553957</v>
       </c>
       <c r="N13">
-        <v>0.6117380125254357</v>
+        <v>1.025800286002315</v>
       </c>
       <c r="O13">
-        <v>1.642710914016817</v>
+        <v>1.80554165362895</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.906936257788516</v>
+        <v>0.9210973112308807</v>
       </c>
       <c r="C14">
-        <v>0.7204032510159379</v>
+        <v>0.2257375616875379</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.4916234794489398</v>
+        <v>0.5594255400674299</v>
       </c>
       <c r="F14">
-        <v>2.01178502516845</v>
+        <v>2.030203508121161</v>
       </c>
       <c r="G14">
-        <v>0.0007658645208560472</v>
+        <v>0.0023868219461338</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.175308348504327</v>
+        <v>0.3635523752941907</v>
       </c>
       <c r="J14">
-        <v>0.01061278360283424</v>
+        <v>0.02750209029186301</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.440892378397933</v>
+        <v>0.6700291760971027</v>
       </c>
       <c r="N14">
-        <v>0.6135025565603698</v>
+        <v>1.026868328963836</v>
       </c>
       <c r="O14">
-        <v>1.620085175502453</v>
+        <v>1.80344006970401</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.875278794443432</v>
+        <v>0.9115244878323665</v>
       </c>
       <c r="C15">
-        <v>0.7127943345869028</v>
+        <v>0.223419601481055</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.4872528701119805</v>
+        <v>0.5586615474793177</v>
       </c>
       <c r="F15">
-        <v>1.993260294541571</v>
+        <v>2.027257815547387</v>
       </c>
       <c r="G15">
-        <v>0.0007663198591363168</v>
+        <v>0.002387092397127208</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.1748250593904643</v>
+        <v>0.3639237475192623</v>
       </c>
       <c r="J15">
-        <v>0.01067826282229145</v>
+        <v>0.02753506710015419</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.424935612415098</v>
+        <v>0.6657587910957972</v>
       </c>
       <c r="N15">
-        <v>0.614608515423626</v>
+        <v>1.027530926958221</v>
       </c>
       <c r="O15">
-        <v>1.606335387478453</v>
+        <v>1.802179797063133</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.694137943167334</v>
+        <v>0.8566335838942791</v>
       </c>
       <c r="C16">
-        <v>0.669265036670339</v>
+        <v>0.2101194140194593</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.4624388133884807</v>
+        <v>0.5543536964204847</v>
       </c>
       <c r="F16">
-        <v>1.888402140798831</v>
+        <v>2.010725936227402</v>
       </c>
       <c r="G16">
-        <v>0.0007689470080595873</v>
+        <v>0.002388666431999198</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.1723337724461516</v>
+        <v>0.3661362713068357</v>
       </c>
       <c r="J16">
-        <v>0.01106139448628074</v>
+        <v>0.02772752357806763</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.333825559988654</v>
+        <v>0.6413364307494618</v>
       </c>
       <c r="N16">
-        <v>0.6213227868911062</v>
+        <v>1.031456652504424</v>
       </c>
       <c r="O16">
-        <v>1.52915507814626</v>
+        <v>1.795371142675208</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.583236703512227</v>
+        <v>0.8229313446326501</v>
       </c>
       <c r="C17">
-        <v>0.6426209308075101</v>
+        <v>0.2019452839121243</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.4474137780637193</v>
+        <v>0.5517737154452647</v>
       </c>
       <c r="F17">
-        <v>1.825182075456354</v>
+        <v>2.000895150399629</v>
       </c>
       <c r="G17">
-        <v>0.0007705749907982819</v>
+        <v>0.002389653680916811</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.1710445443246691</v>
+        <v>0.3675687249617887</v>
       </c>
       <c r="J17">
-        <v>0.01130333240667358</v>
+        <v>0.0278486950263126</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.278209992884101</v>
+        <v>0.6263985827695961</v>
       </c>
       <c r="N17">
-        <v>0.6257685638034332</v>
+        <v>1.033979789562601</v>
       </c>
       <c r="O17">
-        <v>1.483185928450752</v>
+        <v>1.791562642357604</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.519522351147373</v>
+        <v>0.8035366227433087</v>
       </c>
       <c r="C18">
-        <v>0.6273153520312178</v>
+        <v>0.1972383375076276</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.4388407137026746</v>
+        <v>0.5503128505722401</v>
       </c>
       <c r="F18">
-        <v>1.789206133595641</v>
+        <v>1.995354965759802</v>
       </c>
       <c r="G18">
-        <v>0.0007715175271981706</v>
+        <v>0.002390229487313256</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.1703873356415819</v>
+        <v>0.3684202028614436</v>
       </c>
       <c r="J18">
-        <v>0.01144496719238308</v>
+        <v>0.02791953119374124</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.24631625829349</v>
+        <v>0.6178231999372485</v>
       </c>
       <c r="N18">
-        <v>0.6284422215050256</v>
+        <v>1.035473247831796</v>
       </c>
       <c r="O18">
-        <v>1.457228424793641</v>
+        <v>1.789507257702581</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.497961515246629</v>
+        <v>0.7969682060544869</v>
       </c>
       <c r="C19">
-        <v>0.6221362461744206</v>
+        <v>0.1956437251301963</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.4359495236205575</v>
+        <v>0.5498221906916285</v>
       </c>
       <c r="F19">
-        <v>1.777089824339598</v>
+        <v>1.993498766417645</v>
       </c>
       <c r="G19">
-        <v>0.0007718377281327656</v>
+        <v>0.002390425815575395</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.1701789707761279</v>
+        <v>0.3687132291930446</v>
       </c>
       <c r="J19">
-        <v>0.01149334272227698</v>
+        <v>0.02794371119029737</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.23553322714271</v>
+        <v>0.6149225637667683</v>
       </c>
       <c r="N19">
-        <v>0.6293671698692265</v>
+        <v>1.035986159481283</v>
       </c>
       <c r="O19">
-        <v>1.44852036976701</v>
+        <v>1.788834533670439</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.595034570023302</v>
+        <v>0.826520057651237</v>
       </c>
       <c r="C20">
-        <v>0.6454551770548278</v>
+        <v>0.2028159948102086</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.4490060028475469</v>
+        <v>0.5520459712573427</v>
       </c>
       <c r="F20">
-        <v>1.831871503926394</v>
+        <v>2.001929831217197</v>
       </c>
       <c r="G20">
-        <v>0.0007704010550560686</v>
+        <v>0.002389547762201957</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.1711729795298282</v>
+        <v>0.3674133835563254</v>
       </c>
       <c r="J20">
-        <v>0.01127731992894709</v>
+        <v>0.02783567797744357</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.284120389601753</v>
+        <v>0.6279870402234167</v>
       </c>
       <c r="N20">
-        <v>0.6252831612101772</v>
+        <v>1.033706828434404</v>
       </c>
       <c r="O20">
-        <v>1.488028934745813</v>
+        <v>1.79195406983763</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.922122071000103</v>
+        <v>0.9256871447238382</v>
       </c>
       <c r="C21">
-        <v>0.7240533437580723</v>
+        <v>0.2268487852198575</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.493723549887207</v>
+        <v>0.5597931380465084</v>
       </c>
       <c r="F21">
-        <v>2.020691885511894</v>
+        <v>2.031622218132171</v>
       </c>
       <c r="G21">
-        <v>0.0007656464822190028</v>
+        <v>0.002386692684717488</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.1755451531593621</v>
+        <v>0.3633757857557995</v>
       </c>
       <c r="J21">
-        <v>0.01058152634689691</v>
+        <v>0.0274863385611841</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.448550216676452</v>
+        <v>0.6720778127063767</v>
       </c>
       <c r="N21">
-        <v>0.6129790102741168</v>
+        <v>1.026552870295767</v>
       </c>
       <c r="O21">
-        <v>1.626708018332465</v>
+        <v>1.804051726156416</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.136735650867877</v>
+        <v>0.9904009251189336</v>
       </c>
       <c r="C22">
-        <v>0.7756502246066646</v>
+        <v>0.2425059785018391</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.5236433262634321</v>
+        <v>0.5650615383836595</v>
       </c>
       <c r="F22">
-        <v>2.147981977604019</v>
+        <v>2.052046398544249</v>
       </c>
       <c r="G22">
-        <v>0.0007625902967101862</v>
+        <v>0.002384897285689586</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.1792308003379688</v>
+        <v>0.3609834524092079</v>
       </c>
       <c r="J22">
-        <v>0.0101500952786262</v>
+        <v>0.02726818533224051</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.557015038660836</v>
+        <v>0.701037682238109</v>
       </c>
       <c r="N22">
-        <v>0.6060524220024561</v>
+        <v>1.022252942355934</v>
       </c>
       <c r="O22">
-        <v>1.722162066337233</v>
+        <v>1.81316648181604</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.022105443750945</v>
+        <v>0.955871275776019</v>
       </c>
       <c r="C23">
-        <v>0.7480882562907709</v>
+        <v>0.2341540534965247</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.5076069617297279</v>
+        <v>0.5622309332340549</v>
       </c>
       <c r="F23">
-        <v>2.079666896771784</v>
+        <v>2.041052372136278</v>
       </c>
       <c r="G23">
-        <v>0.0007642169414290447</v>
+        <v>0.002385849086366396</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.1771840123113542</v>
+        <v>0.3622376864561971</v>
       </c>
       <c r="J23">
-        <v>0.01037816263360902</v>
+        <v>0.02738368839325389</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.499025863216332</v>
+        <v>0.6855682084812855</v>
       </c>
       <c r="N23">
-        <v>0.6096433767515919</v>
+        <v>1.024513543034352</v>
       </c>
       <c r="O23">
-        <v>1.670749104832765</v>
+        <v>1.808190988086182</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.589700618818483</v>
+        <v>0.8248976591422661</v>
       </c>
       <c r="C24">
-        <v>0.6441737760742683</v>
+        <v>0.2024223698532523</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.4482859563385659</v>
+        <v>0.5519228146253283</v>
       </c>
       <c r="F24">
-        <v>1.828846065259398</v>
+        <v>2.001461704202029</v>
       </c>
       <c r="G24">
-        <v>0.0007704796708856296</v>
+        <v>0.00238959562245292</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.1711146532122534</v>
+        <v>0.367483526380429</v>
       </c>
       <c r="J24">
-        <v>0.01128907226742548</v>
+        <v>0.02784155933116761</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.281448050505858</v>
+        <v>0.6272688593785034</v>
       </c>
       <c r="N24">
-        <v>0.6255022458787565</v>
+        <v>1.033830100606799</v>
       </c>
       <c r="O24">
-        <v>1.485837950866539</v>
+        <v>1.791776687580182</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.125982250641925</v>
+        <v>0.6832399881578795</v>
       </c>
       <c r="C25">
-        <v>0.5328001367188051</v>
+        <v>0.1679888245533334</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.3868950031285152</v>
+        <v>0.5416860357273805</v>
       </c>
       <c r="F25">
-        <v>1.572856231715321</v>
+        <v>1.963122708278235</v>
       </c>
       <c r="G25">
-        <v>0.0007774725604391408</v>
+        <v>0.002393941708945331</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.1677530296483702</v>
+        <v>0.374195430791616</v>
       </c>
       <c r="J25">
-        <v>0.01236577503449432</v>
+        <v>0.02837909562382013</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.050305763030607</v>
+        <v>0.5650146899510773</v>
       </c>
       <c r="N25">
-        <v>0.6470266199407604</v>
+        <v>1.045493791655517</v>
       </c>
       <c r="O25">
-        <v>1.304578853901234</v>
+        <v>1.779235873540273</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_221/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_221/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.5786272824987009</v>
+        <v>1.785873222518035</v>
       </c>
       <c r="C2">
-        <v>0.1424607078895122</v>
+        <v>0.4511284645991225</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.5349065666312782</v>
+        <v>0.3435306524350779</v>
       </c>
       <c r="F2">
-        <v>1.9386318224402</v>
+        <v>1.394720016390096</v>
       </c>
       <c r="G2">
-        <v>0.002397406590757517</v>
+        <v>0.0007828446776036637</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.3800386061133487</v>
+        <v>0.1676407100718542</v>
       </c>
       <c r="J2">
-        <v>0.02881251915116678</v>
+        <v>0.01323363259875965</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.5197229209234209</v>
+        <v>0.8823861438386658</v>
       </c>
       <c r="N2">
-        <v>1.055473216310645</v>
+        <v>0.6663031917134674</v>
       </c>
       <c r="O2">
-        <v>1.774413326933001</v>
+        <v>1.184219337661517</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5075470041084031</v>
+        <v>1.555759111573565</v>
       </c>
       <c r="C3">
-        <v>0.1250525105573672</v>
+        <v>0.3958607063380271</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.5307845632489077</v>
+        <v>0.3151109377130723</v>
       </c>
       <c r="F3">
-        <v>1.924358166205451</v>
+        <v>1.279468340767551</v>
       </c>
       <c r="G3">
-        <v>0.002399921364743411</v>
+        <v>0.0007866334106329995</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.3845583701168991</v>
+        <v>0.1688666995147017</v>
       </c>
       <c r="J3">
-        <v>0.02912978147959766</v>
+        <v>0.01386593612799736</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.4893710185732161</v>
+        <v>0.7696497725699345</v>
       </c>
       <c r="N3">
-        <v>1.063106144429121</v>
+        <v>0.6813364153866104</v>
       </c>
       <c r="O3">
-        <v>1.773881814020569</v>
+        <v>1.109665178046527</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.463817675957813</v>
+        <v>1.414524065283956</v>
       </c>
       <c r="C4">
-        <v>0.114311521390249</v>
+        <v>0.3619294330129037</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.5284867624169749</v>
+        <v>0.2980854228645669</v>
       </c>
       <c r="F4">
-        <v>1.916738407699455</v>
+        <v>1.211105011041369</v>
       </c>
       <c r="G4">
-        <v>0.002401548064996573</v>
+        <v>0.0007890353810121598</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.3876088483800153</v>
+        <v>0.1702089809454534</v>
       </c>
       <c r="J4">
-        <v>0.02933620189066133</v>
+        <v>0.01427511776061774</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.470905199287877</v>
+        <v>0.7008490130734017</v>
       </c>
       <c r="N4">
-        <v>1.068222459859513</v>
+        <v>0.6914864365119158</v>
       </c>
       <c r="O4">
-        <v>1.774900766586669</v>
+        <v>1.066995369029655</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.4459771068897282</v>
+        <v>1.356966369601736</v>
       </c>
       <c r="C5">
-        <v>0.1099215316546633</v>
+        <v>0.3480981122827416</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.5276090616776798</v>
+        <v>0.2912467347967507</v>
       </c>
       <c r="F5">
-        <v>1.913920911138604</v>
+        <v>1.183809089124665</v>
       </c>
       <c r="G5">
-        <v>0.002402231795535941</v>
+        <v>0.0007900336006106025</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.3889210577113786</v>
+        <v>0.1708967771560665</v>
       </c>
       <c r="J5">
-        <v>0.02942324358308568</v>
+        <v>0.01444701005294657</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.4634234328729292</v>
+        <v>0.6729035414232527</v>
       </c>
       <c r="N5">
-        <v>1.070415543999289</v>
+        <v>0.6958465819355482</v>
       </c>
       <c r="O5">
-        <v>1.775653709435645</v>
+        <v>1.050338978125154</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.4430134860235171</v>
+        <v>1.347408275067863</v>
       </c>
       <c r="C6">
-        <v>0.1091918009407493</v>
+        <v>0.3458010504142806</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.5274668652700782</v>
+        <v>0.2901169692701515</v>
       </c>
       <c r="F6">
-        <v>1.913470435525412</v>
+        <v>1.179309443716491</v>
       </c>
       <c r="G6">
-        <v>0.002402346588863059</v>
+        <v>0.0007902005362464994</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.389143119970182</v>
+        <v>0.1710192789446268</v>
       </c>
       <c r="J6">
-        <v>0.02943787342528559</v>
+        <v>0.01447586014994595</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.4621837114612717</v>
+        <v>0.6682683388577715</v>
       </c>
       <c r="N6">
-        <v>1.07078623863427</v>
+        <v>0.6965838995038354</v>
       </c>
       <c r="O6">
-        <v>1.775799115108043</v>
+        <v>1.047616007931339</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.4635771534676678</v>
+        <v>1.413747857420844</v>
       </c>
       <c r="C7">
-        <v>0.1142523686218624</v>
+        <v>0.3617429216244261</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.5284746878115172</v>
+        <v>0.2979928010797153</v>
       </c>
       <c r="F7">
-        <v>1.91669924558397</v>
+        <v>1.210734663260553</v>
       </c>
       <c r="G7">
-        <v>0.002401557201585846</v>
+        <v>0.0007890487643218563</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.3876262656085103</v>
+        <v>0.1702176962506243</v>
       </c>
       <c r="J7">
-        <v>0.02933736392533959</v>
+        <v>0.01427741527163917</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.470804122152316</v>
+        <v>0.7004717787358459</v>
       </c>
       <c r="N7">
-        <v>1.068251598552713</v>
+        <v>0.6915443416353426</v>
       </c>
       <c r="O7">
-        <v>1.774909554424497</v>
+        <v>1.066767835015327</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.5541372074298749</v>
+        <v>1.706507420044829</v>
       </c>
       <c r="C8">
-        <v>0.1364693270177213</v>
+        <v>0.4320683821943874</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.5334369421626732</v>
+        <v>0.3336389085467601</v>
       </c>
       <c r="F8">
-        <v>1.933472671165319</v>
+        <v>1.354457228759784</v>
       </c>
       <c r="G8">
-        <v>0.002398256574872144</v>
+        <v>0.0007841355543884679</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.3815398061995197</v>
+        <v>0.1679364895890565</v>
       </c>
       <c r="J8">
-        <v>0.02891950052751113</v>
+        <v>0.01344723035342188</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.5092224321637175</v>
+        <v>0.8434186824052645</v>
       </c>
       <c r="N8">
-        <v>1.058015931732101</v>
+        <v>0.6712912771041459</v>
       </c>
       <c r="O8">
-        <v>1.773950490947499</v>
+        <v>1.157837766376872</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.7310071983799844</v>
+        <v>2.281917806939362</v>
       </c>
       <c r="C9">
-        <v>0.1796151617792532</v>
+        <v>0.5702471405230654</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.5450165492370118</v>
+        <v>0.4072641746345838</v>
       </c>
       <c r="F9">
-        <v>1.975455545941244</v>
+        <v>1.657341302171332</v>
       </c>
       <c r="G9">
-        <v>0.002392436756627445</v>
+        <v>0.0007750835239431871</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.3717941992304539</v>
+        <v>0.1684943240398731</v>
       </c>
       <c r="J9">
-        <v>0.02819218542282531</v>
+        <v>0.01199104617899316</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.5859006084301939</v>
+        <v>1.127764314802889</v>
       </c>
       <c r="N9">
-        <v>1.041348923741211</v>
+        <v>0.6392198420748869</v>
       </c>
       <c r="O9">
-        <v>1.782773024147303</v>
+        <v>1.363438895296071</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.8604778505700779</v>
+        <v>2.706803079679048</v>
       </c>
       <c r="C10">
-        <v>0.211051401862818</v>
+        <v>0.6723081252870884</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.5546512155846699</v>
+        <v>0.4641628784341592</v>
       </c>
       <c r="F10">
-        <v>2.011863179507131</v>
+        <v>1.895669820204574</v>
       </c>
       <c r="G10">
-        <v>0.002388554858115927</v>
+        <v>0.0007687620669662688</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.3659765573218472</v>
+        <v>0.1724925620169699</v>
       </c>
       <c r="J10">
-        <v>0.02771385173911511</v>
+        <v>0.01103412760406908</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.6430431660340901</v>
+        <v>1.340185046513724</v>
       </c>
       <c r="N10">
-        <v>1.031174464289265</v>
+        <v>0.6208315404440441</v>
       </c>
       <c r="O10">
-        <v>1.795824049989193</v>
+        <v>1.534467596876254</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.9192668243927073</v>
+        <v>2.900881251092983</v>
       </c>
       <c r="C11">
-        <v>0.2252943626271247</v>
+        <v>0.7189478866670527</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.5592791694133865</v>
+        <v>0.4907867594225905</v>
       </c>
       <c r="F11">
-        <v>2.029638851708867</v>
+        <v>2.008237349700082</v>
       </c>
       <c r="G11">
-        <v>0.002386873571152727</v>
+        <v>0.0007659515278717703</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.3636230663273317</v>
+        <v>0.1752148257882027</v>
       </c>
       <c r="J11">
-        <v>0.02750838300262881</v>
+        <v>0.01062527425377091</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.6692123571486093</v>
+        <v>1.437839619554666</v>
       </c>
       <c r="N11">
-        <v>1.026994540259658</v>
+        <v>0.6137125667624446</v>
       </c>
       <c r="O11">
-        <v>1.8031974654576</v>
+        <v>1.617449371533212</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.9415122719584588</v>
+        <v>2.974516571146694</v>
       </c>
       <c r="C12">
-        <v>0.2306793665967746</v>
+        <v>0.7366478139762762</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.5610668793326212</v>
+        <v>0.5009867107845238</v>
       </c>
       <c r="F12">
-        <v>2.036544832242569</v>
+        <v>2.051525026332314</v>
       </c>
       <c r="G12">
-        <v>0.002386249014039853</v>
+        <v>0.0007648960693586311</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.3627741241417688</v>
+        <v>0.1763867795499472</v>
       </c>
       <c r="J12">
-        <v>0.02743231963428805</v>
+        <v>0.01047443364853518</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.6791467983182713</v>
+        <v>1.474988897158596</v>
       </c>
       <c r="N12">
-        <v>1.025476135749223</v>
+        <v>0.6112070542582799</v>
       </c>
       <c r="O12">
-        <v>1.806196853004764</v>
+        <v>1.649692859047008</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.936722076060164</v>
+        <v>2.958651100300358</v>
       </c>
       <c r="C13">
-        <v>0.2295199910330155</v>
+        <v>0.7328339719454107</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.5606802989318496</v>
+        <v>0.4987845226414862</v>
       </c>
       <c r="F13">
-        <v>2.035049731946586</v>
+        <v>2.042171788770204</v>
       </c>
       <c r="G13">
-        <v>0.002386382985900438</v>
+        <v>0.0007651229973690865</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.3629550766161316</v>
+        <v>0.1761279164956164</v>
       </c>
       <c r="J13">
-        <v>0.02744862372483414</v>
+        <v>0.01050673972209548</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.6770061447553957</v>
+        <v>1.466980214294082</v>
       </c>
       <c r="N13">
-        <v>1.025800286002315</v>
+        <v>0.6117380125253646</v>
       </c>
       <c r="O13">
-        <v>1.80554165362895</v>
+        <v>1.642710914016789</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.9210973112308807</v>
+        <v>2.906936257788573</v>
       </c>
       <c r="C14">
-        <v>0.2257375616875379</v>
+        <v>0.7204032510156821</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.5594255400674299</v>
+        <v>0.4916234794489398</v>
       </c>
       <c r="F14">
-        <v>2.030203508121161</v>
+        <v>2.01178502516845</v>
       </c>
       <c r="G14">
-        <v>0.0023868219461338</v>
+        <v>0.0007658645208562129</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.3635523752941907</v>
+        <v>0.1753083485043128</v>
       </c>
       <c r="J14">
-        <v>0.02750209029186301</v>
+        <v>0.01061278360290085</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.6700291760971027</v>
+        <v>1.440892378397933</v>
       </c>
       <c r="N14">
-        <v>1.026868328963836</v>
+        <v>0.6135025565602561</v>
       </c>
       <c r="O14">
-        <v>1.80344006970401</v>
+        <v>1.62008517550251</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.9115244878323665</v>
+        <v>2.875278794443545</v>
       </c>
       <c r="C15">
-        <v>0.223419601481055</v>
+        <v>0.7127943345866186</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.5586615474793177</v>
+        <v>0.4872528701119663</v>
       </c>
       <c r="F15">
-        <v>2.027257815547387</v>
+        <v>1.993260294541571</v>
       </c>
       <c r="G15">
-        <v>0.002387092397127208</v>
+        <v>0.0007663198591111609</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.3639237475192623</v>
+        <v>0.1748250593904643</v>
       </c>
       <c r="J15">
-        <v>0.02753506710015419</v>
+        <v>0.01067826282234208</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.6657587910957972</v>
+        <v>1.424935612415098</v>
       </c>
       <c r="N15">
-        <v>1.027530926958221</v>
+        <v>0.614608515423626</v>
       </c>
       <c r="O15">
-        <v>1.802179797063133</v>
+        <v>1.606335387478538</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.8566335838942791</v>
+        <v>2.694137943167448</v>
       </c>
       <c r="C16">
-        <v>0.2101194140194593</v>
+        <v>0.6692650366700832</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.5543536964204847</v>
+        <v>0.4624388133884665</v>
       </c>
       <c r="F16">
-        <v>2.010725936227402</v>
+        <v>1.888402140798831</v>
       </c>
       <c r="G16">
-        <v>0.002388666431999198</v>
+        <v>0.0007689470080308173</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.3661362713068357</v>
+        <v>0.1723337724461516</v>
       </c>
       <c r="J16">
-        <v>0.02772752357806763</v>
+        <v>0.01106139448626298</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.6413364307494618</v>
+        <v>1.333825559988654</v>
       </c>
       <c r="N16">
-        <v>1.031456652504424</v>
+        <v>0.6213227868910991</v>
       </c>
       <c r="O16">
-        <v>1.795371142675208</v>
+        <v>1.529155078146204</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.8229313446326501</v>
+        <v>2.583236703512171</v>
       </c>
       <c r="C17">
-        <v>0.2019452839121243</v>
+        <v>0.6426209308077944</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.5517737154452647</v>
+        <v>0.4474137780637335</v>
       </c>
       <c r="F17">
-        <v>2.000895150399629</v>
+        <v>1.82518207545634</v>
       </c>
       <c r="G17">
-        <v>0.002389653680916811</v>
+        <v>0.000770574990826666</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.3675687249617887</v>
+        <v>0.1710445443246655</v>
       </c>
       <c r="J17">
-        <v>0.0278486950263126</v>
+        <v>0.01130333240667003</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.6263985827695961</v>
+        <v>1.278209992884101</v>
       </c>
       <c r="N17">
-        <v>1.033979789562601</v>
+        <v>0.6257685638034332</v>
       </c>
       <c r="O17">
-        <v>1.791562642357604</v>
+        <v>1.483185928450752</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.8035366227433087</v>
+        <v>2.519522351147486</v>
       </c>
       <c r="C18">
-        <v>0.1972383375076276</v>
+        <v>0.6273153520314168</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.5503128505722401</v>
+        <v>0.4388407137027031</v>
       </c>
       <c r="F18">
-        <v>1.995354965759802</v>
+        <v>1.789206133595627</v>
       </c>
       <c r="G18">
-        <v>0.002390229487313256</v>
+        <v>0.0007715175271737658</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.3684202028614436</v>
+        <v>0.1703873356415819</v>
       </c>
       <c r="J18">
-        <v>0.02791953119374124</v>
+        <v>0.0114449671924266</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.6178231999372485</v>
+        <v>1.246316258293518</v>
       </c>
       <c r="N18">
-        <v>1.035473247831796</v>
+        <v>0.6284422215049617</v>
       </c>
       <c r="O18">
-        <v>1.789507257702581</v>
+        <v>1.457228424793698</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.7969682060544869</v>
+        <v>2.497961515246743</v>
       </c>
       <c r="C19">
-        <v>0.1956437251301963</v>
+        <v>0.6221362461745343</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.5498221906916285</v>
+        <v>0.4359495236205504</v>
       </c>
       <c r="F19">
-        <v>1.993498766417645</v>
+        <v>1.777089824339626</v>
       </c>
       <c r="G19">
-        <v>0.002390425815575395</v>
+        <v>0.0007718377280527564</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.3687132291930446</v>
+        <v>0.1701789707761314</v>
       </c>
       <c r="J19">
-        <v>0.02794371119029737</v>
+        <v>0.0114933427222832</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.6149225637667683</v>
+        <v>1.235533227142696</v>
       </c>
       <c r="N19">
-        <v>1.035986159481283</v>
+        <v>0.6293671698692833</v>
       </c>
       <c r="O19">
-        <v>1.788834533670439</v>
+        <v>1.448520369767039</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.826520057651237</v>
+        <v>2.595034570023245</v>
       </c>
       <c r="C20">
-        <v>0.2028159948102086</v>
+        <v>0.6454551770549131</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.5520459712573427</v>
+        <v>0.449006002847554</v>
       </c>
       <c r="F20">
-        <v>2.001929831217197</v>
+        <v>1.831871503926394</v>
       </c>
       <c r="G20">
-        <v>0.002389547762201957</v>
+        <v>0.0007704010550838388</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.3674133835563254</v>
+        <v>0.1711729795298425</v>
       </c>
       <c r="J20">
-        <v>0.02783567797744357</v>
+        <v>0.01127731992894354</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.6279870402234167</v>
+        <v>1.284120389601767</v>
       </c>
       <c r="N20">
-        <v>1.033706828434404</v>
+        <v>0.625283161210227</v>
       </c>
       <c r="O20">
-        <v>1.79195406983763</v>
+        <v>1.488028934745813</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.9256871447238382</v>
+        <v>2.922122071000217</v>
       </c>
       <c r="C21">
-        <v>0.2268487852198575</v>
+        <v>0.7240533437579586</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.5597931380465084</v>
+        <v>0.4937235498871573</v>
       </c>
       <c r="F21">
-        <v>2.031622218132171</v>
+        <v>2.020691885511866</v>
       </c>
       <c r="G21">
-        <v>0.002386692684717488</v>
+        <v>0.0007656464821360256</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.3633757857557995</v>
+        <v>0.1755451531593799</v>
       </c>
       <c r="J21">
-        <v>0.0274863385611841</v>
+        <v>0.01058152634689513</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.6720778127063767</v>
+        <v>1.448550216676423</v>
       </c>
       <c r="N21">
-        <v>1.026552870295767</v>
+        <v>0.6129790102741168</v>
       </c>
       <c r="O21">
-        <v>1.804051726156416</v>
+        <v>1.626708018332494</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.9904009251189336</v>
+        <v>3.136735650867706</v>
       </c>
       <c r="C22">
-        <v>0.2425059785018391</v>
+        <v>0.7756502246066361</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.5650615383836595</v>
+        <v>0.5236433262634037</v>
       </c>
       <c r="F22">
-        <v>2.052046398544249</v>
+        <v>2.147981977604019</v>
       </c>
       <c r="G22">
-        <v>0.002384897285689586</v>
+        <v>0.0007625902967097976</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.3609834524092079</v>
+        <v>0.1792308003379794</v>
       </c>
       <c r="J22">
-        <v>0.02726818533224051</v>
+        <v>0.0101500952786262</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.701037682238109</v>
+        <v>1.557015038660836</v>
       </c>
       <c r="N22">
-        <v>1.022252942355934</v>
+        <v>0.606052422002449</v>
       </c>
       <c r="O22">
-        <v>1.81316648181604</v>
+        <v>1.722162066337233</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.955871275776019</v>
+        <v>3.022105443750831</v>
       </c>
       <c r="C23">
-        <v>0.2341540534965247</v>
+        <v>0.7480882562907993</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.5622309332340549</v>
+        <v>0.507606961729735</v>
       </c>
       <c r="F23">
-        <v>2.041052372136278</v>
+        <v>2.079666896771769</v>
       </c>
       <c r="G23">
-        <v>0.002385849086366396</v>
+        <v>0.0007642169414297116</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.3622376864561971</v>
+        <v>0.1771840123113506</v>
       </c>
       <c r="J23">
-        <v>0.02738368839325389</v>
+        <v>0.01037816263360813</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.6855682084812855</v>
+        <v>1.499025863216275</v>
       </c>
       <c r="N23">
-        <v>1.024513543034352</v>
+        <v>0.6096433767515492</v>
       </c>
       <c r="O23">
-        <v>1.808190988086182</v>
+        <v>1.670749104832765</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.8248976591422661</v>
+        <v>2.589700618818256</v>
       </c>
       <c r="C24">
-        <v>0.2024223698532523</v>
+        <v>0.6441737760742399</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.5519228146253283</v>
+        <v>0.4482859563385659</v>
       </c>
       <c r="F24">
-        <v>2.001461704202029</v>
+        <v>1.828846065259384</v>
       </c>
       <c r="G24">
-        <v>0.00238959562245292</v>
+        <v>0.000770479670860175</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.367483526380429</v>
+        <v>0.1711146532122712</v>
       </c>
       <c r="J24">
-        <v>0.02784155933116761</v>
+        <v>0.01128907226747344</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.6272688593785034</v>
+        <v>1.281448050505844</v>
       </c>
       <c r="N24">
-        <v>1.033830100606799</v>
+        <v>0.6255022458787494</v>
       </c>
       <c r="O24">
-        <v>1.791776687580182</v>
+        <v>1.485837950866539</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.6832399881578795</v>
+        <v>2.125982250641869</v>
       </c>
       <c r="C25">
-        <v>0.1679888245533334</v>
+        <v>0.5328001367184925</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.5416860357273805</v>
+        <v>0.3868950031285223</v>
       </c>
       <c r="F25">
-        <v>1.963122708278235</v>
+        <v>1.572856231715306</v>
       </c>
       <c r="G25">
-        <v>0.002393941708945331</v>
+        <v>0.0007774725604958409</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.374195430791616</v>
+        <v>0.1677530296483738</v>
       </c>
       <c r="J25">
-        <v>0.02837909562382013</v>
+        <v>0.01236577503455294</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.5650146899510773</v>
+        <v>1.050305763030607</v>
       </c>
       <c r="N25">
-        <v>1.045493791655517</v>
+        <v>0.6470266199408101</v>
       </c>
       <c r="O25">
-        <v>1.779235873540273</v>
+        <v>1.30457885390129</v>
       </c>
     </row>
   </sheetData>
